--- a/AntipatternsUpdated.xlsx
+++ b/AntipatternsUpdated.xlsx
@@ -700,11 +700,11 @@
       <c r="F9" s="13">
         <v>12.0</v>
       </c>
-      <c r="G9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.0</v>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1.0</v>
       </c>
       <c r="I9" s="11">
         <v>0.0</v>
